--- a/October 2018/Weekend_Weekday/Validation/Input_October2018.xlsx
+++ b/October 2018/Weekend_Weekday/Validation/Input_October2018.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B4581B-6967-4924-BBF4-550D6708D77E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF081B-448D-4437-8089-401AED395136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflow" sheetId="4" r:id="rId1"/>
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -487,6 +487,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,7 +801,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -815,248 +818,248 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>986</v>
+      <c r="B2" s="19">
+        <v>4614</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
-        <v>986</v>
+      <c r="B3" s="19">
+        <v>5346</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>985</v>
+      <c r="B4" s="19">
+        <v>4425</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
-        <v>984</v>
+      <c r="B5" s="19">
+        <v>4396</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
-        <v>983</v>
+      <c r="B6" s="19">
+        <v>7281</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
-        <v>983</v>
+      <c r="B7" s="19">
+        <v>7230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
-        <v>983</v>
+      <c r="B8" s="19">
+        <v>13082</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
-        <v>984</v>
+      <c r="B9" s="19">
+        <v>14844</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
-        <v>984</v>
+      <c r="B10" s="19">
+        <v>11161</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
-        <v>984</v>
+      <c r="B11" s="19">
+        <v>13579</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
-        <v>985</v>
+      <c r="B12" s="19">
+        <v>16356</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
-        <v>985</v>
+      <c r="B13" s="19">
+        <v>7879</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
-        <v>985</v>
+      <c r="B14" s="19">
+        <v>9725</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
-        <v>984</v>
+      <c r="B15" s="19">
+        <v>8960</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
-        <v>984</v>
+      <c r="B16" s="19">
+        <v>4362</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
-        <v>983</v>
+      <c r="B17" s="19">
+        <v>5885</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
-        <v>983</v>
+      <c r="B18" s="19">
+        <v>9247</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
-        <v>983</v>
+      <c r="B19" s="19">
+        <v>9919</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
-        <v>982</v>
+      <c r="B20" s="19">
+        <v>5928</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
-        <v>982</v>
+      <c r="B21" s="19">
+        <v>8213</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
-        <v>981</v>
+      <c r="B22" s="19">
+        <v>8163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
-        <v>981</v>
+      <c r="B23" s="19">
+        <v>9233</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
-        <v>980</v>
+      <c r="B24" s="19">
+        <v>3347</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
-        <v>980</v>
+      <c r="B25" s="19">
+        <v>6373</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
-        <v>979</v>
+      <c r="B26" s="19">
+        <v>6926</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
-        <v>978</v>
+      <c r="B27" s="19">
+        <v>5578</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="17">
-        <v>978</v>
+      <c r="B28" s="19">
+        <v>5377</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
-        <v>977</v>
+      <c r="B29" s="19">
+        <v>6117</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
-        <v>976</v>
+      <c r="B30" s="19">
+        <v>5425</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
-        <v>976</v>
+      <c r="B31" s="19">
+        <v>5949</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="17">
-        <v>975</v>
+      <c r="B32" s="19">
+        <v>5572</v>
       </c>
     </row>
   </sheetData>
@@ -1357,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B457F82-FDD1-4821-B79D-1B9650D3ACDE}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1376,248 +1379,248 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>3592.15</v>
+      <c r="B2" s="19">
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
-        <v>3592.04</v>
+      <c r="B3" s="19">
+        <v>986</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>3591.91</v>
+      <c r="B4" s="19">
+        <v>985</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
-        <v>3591.78</v>
+      <c r="B5" s="19">
+        <v>984</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
-        <v>3591.71</v>
+      <c r="B6" s="19">
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
-        <v>3591.64</v>
+      <c r="B7" s="19">
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
-        <v>3591.71</v>
+      <c r="B8" s="19">
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
-        <v>3591.79</v>
+      <c r="B9" s="19">
+        <v>984</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
-        <v>3591.8</v>
+      <c r="B10" s="19">
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
-        <v>3591.85</v>
+      <c r="B11" s="19">
+        <v>984</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
-        <v>3591.96</v>
+      <c r="B12" s="19">
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
-        <v>3591.9</v>
+      <c r="B13" s="19">
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
-        <v>3591.88</v>
+      <c r="B14" s="19">
+        <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
-        <v>3591.87</v>
+      <c r="B15" s="19">
+        <v>984</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
-        <v>3591.74</v>
+      <c r="B16" s="19">
+        <v>984</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
-        <v>3591.64</v>
+      <c r="B17" s="19">
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
-        <v>3591.61</v>
+      <c r="B18" s="19">
+        <v>983</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
-        <v>3591.59</v>
+      <c r="B19" s="19">
+        <v>983</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
-        <v>3591.5</v>
+      <c r="B20" s="19">
+        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
-        <v>3591.45</v>
+      <c r="B21" s="19">
+        <v>982</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
-        <v>3591.42</v>
+      <c r="B22" s="19">
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
-        <v>3591.39</v>
+      <c r="B23" s="19">
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
-        <v>3591.24</v>
+      <c r="B24" s="19">
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
-        <v>3591.15</v>
+      <c r="B25" s="19">
+        <v>980</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
-        <v>3591.07</v>
+      <c r="B26" s="19">
+        <v>979</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
-        <v>3590.96</v>
+      <c r="B27" s="19">
+        <v>978</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="17">
-        <v>3590.85</v>
+      <c r="B28" s="19">
+        <v>978</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
-        <v>3590.78</v>
+      <c r="B29" s="19">
+        <v>977</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
-        <v>3590.67</v>
+      <c r="B30" s="19">
+        <v>976</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
-        <v>3590.57</v>
+      <c r="B31" s="19">
+        <v>976</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="17">
-        <v>3590.46</v>
+      <c r="B32" s="19">
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B28808B-0EB8-47F9-9AD0-E6038F040C69}">
   <dimension ref="A1:O2977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -29059,39 +29062,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="6" t="s">
@@ -29347,7 +29350,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -29451,7 +29454,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -29553,7 +29556,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -29655,7 +29658,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
@@ -29757,7 +29760,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -29859,7 +29862,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -29961,7 +29964,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
@@ -30063,7 +30066,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
@@ -30165,7 +30168,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -30267,7 +30270,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -30369,7 +30372,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
@@ -30471,7 +30474,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
@@ -30573,7 +30576,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
@@ -30675,7 +30678,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
@@ -30777,7 +30780,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
@@ -30879,7 +30882,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
@@ -30981,7 +30984,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
@@ -31083,7 +31086,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -31185,7 +31188,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
@@ -31287,7 +31290,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
@@ -31389,7 +31392,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="25"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -31491,7 +31494,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
@@ -31593,7 +31596,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -31695,7 +31698,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="25"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -31797,7 +31800,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
@@ -31899,7 +31902,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="25"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
@@ -32001,7 +32004,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
@@ -32103,7 +32106,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="25"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
@@ -32205,7 +32208,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
@@ -32307,7 +32310,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="25"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
@@ -32409,7 +32412,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="25"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="12" t="s">
         <v>55</v>
       </c>
@@ -32511,113 +32514,113 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
       <c r="F46" t="s">
         <v>87</v>
       </c>
@@ -32630,9 +32633,9 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
       <c r="F47" t="s">
         <v>88</v>
       </c>
@@ -32702,13 +32705,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
@@ -32862,7 +32865,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
@@ -32966,7 +32969,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -33068,7 +33071,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -33170,7 +33173,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -33272,7 +33275,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -33374,7 +33377,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -33476,7 +33479,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -33578,7 +33581,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -33680,7 +33683,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -33782,7 +33785,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -33884,7 +33887,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -33986,7 +33989,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -34088,7 +34091,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -34190,7 +34193,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -34292,7 +34295,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -34394,7 +34397,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -34496,7 +34499,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -34598,7 +34601,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -34700,7 +34703,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -34802,7 +34805,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -34904,7 +34907,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -35006,7 +35009,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -35108,7 +35111,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -35210,7 +35213,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -35312,7 +35315,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -35414,7 +35417,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -35516,7 +35519,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -35618,7 +35621,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -35720,7 +35723,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" t="s">
         <v>29</v>
       </c>
@@ -35822,7 +35825,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -35924,7 +35927,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
       <c r="B36" t="s">
         <v>55</v>
       </c>
